--- a/KUtil/KMM1_MR01/sample_mast_자재요청서.xlsx
+++ b/KUtil/KMM1_MR01/sample_mast_자재요청서.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\Koin\KUtil\KMM1_MR01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{533DB8DA-5E2F-4CC6-9FD5-25F040F9CE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{597119AA-198D-4B83-B541-C6AB646186F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18900" windowHeight="10965" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
   </bookViews>
   <sheets>
-    <sheet name="0904" sheetId="2" r:id="rId1"/>
+    <sheet name="0905" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -38,8 +38,8 @@
     <definedName name="kkk" hidden="1">[5]Total!#REF!</definedName>
     <definedName name="NEWNAME" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="ONP" hidden="1">'[6]전체내역 (2)'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'0904'!$A$1:$H$37</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'0904'!$1:$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'0905'!$A$1:$H$37</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'0905'!$1:$7</definedName>
     <definedName name="RRR" hidden="1">[7]울산시산표!$G$1:$G$1019</definedName>
     <definedName name="WRITE" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="wrn.BM." hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
@@ -5380,7 +5380,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="49">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="D5" s="7"/>
       <c r="G5" s="8"/>
